--- a/assets/Man.xlsx
+++ b/assets/Man.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/LeWord/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/LeWord/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FC65F9-0FE5-BE44-B897-DC2521EFD9CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6193F8B-81F8-4F43-85E6-5CA7C8BD6446}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="500" windowWidth="36500" windowHeight="26880" activeTab="1" xr2:uid="{1DD8B5C6-89F8-934F-A0C5-859CE61E0003}"/>
+    <workbookView xWindow="14700" yWindow="520" windowWidth="36500" windowHeight="26880" activeTab="1" xr2:uid="{1DD8B5C6-89F8-934F-A0C5-859CE61E0003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t xml:space="preserve">                            };</t>
   </si>
@@ -2335,6 +2335,21 @@
       </rPr>
       <t>, 8, 8, 7, 6, 5, 4, 3, 2, 1, 0, -1, -2, -3, -4, -5, -6, -7, -8, -9, -10, -11, -12, -13, -14, -15, -16, -16, -16, -16, -16,</t>
     </r>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Kryboard</t>
+  </si>
+  <si>
+    <t>Bulb</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Puzzle</t>
   </si>
 </sst>
 </file>
@@ -2766,485 +2781,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94F0F93-CC56-074C-83BA-C9F29C7C18FF}">
-  <dimension ref="A2:FA160"/>
+  <dimension ref="A3:O160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:157" x14ac:dyDescent="0.2">
-      <c r="B2" s="2">
-        <v>-16</v>
-      </c>
-      <c r="C2">
-        <v>-15</v>
-      </c>
-      <c r="D2">
-        <v>-14</v>
-      </c>
-      <c r="E2">
-        <v>-13</v>
-      </c>
-      <c r="F2">
-        <v>-12</v>
-      </c>
-      <c r="G2">
-        <v>-10</v>
-      </c>
-      <c r="H2">
-        <v>-9</v>
-      </c>
-      <c r="I2">
-        <v>-8</v>
-      </c>
-      <c r="J2">
-        <v>-7</v>
-      </c>
-      <c r="K2">
-        <v>-6</v>
-      </c>
-      <c r="L2">
-        <v>-5</v>
-      </c>
-      <c r="M2">
-        <v>-4</v>
-      </c>
-      <c r="N2">
-        <v>-3</v>
-      </c>
-      <c r="O2">
-        <v>-2</v>
-      </c>
-      <c r="P2">
-        <v>-1</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>4</v>
-      </c>
-      <c r="V2">
-        <v>5</v>
-      </c>
-      <c r="W2">
-        <v>6</v>
-      </c>
-      <c r="X2">
-        <v>7</v>
-      </c>
-      <c r="Y2">
-        <v>8</v>
-      </c>
-      <c r="Z2">
-        <v>8</v>
-      </c>
-      <c r="AA2">
-        <v>8</v>
-      </c>
-      <c r="AB2">
-        <v>8</v>
-      </c>
-      <c r="AC2">
-        <v>8</v>
-      </c>
-      <c r="AD2">
-        <v>8</v>
-      </c>
-      <c r="AE2">
-        <v>8</v>
-      </c>
-      <c r="AF2">
-        <v>8</v>
-      </c>
-      <c r="AG2">
-        <v>8</v>
-      </c>
-      <c r="AH2">
-        <v>8</v>
-      </c>
-      <c r="AI2">
-        <v>8</v>
-      </c>
-      <c r="AJ2">
-        <v>8</v>
-      </c>
-      <c r="AK2">
-        <v>8</v>
-      </c>
-      <c r="AL2">
-        <v>8</v>
-      </c>
-      <c r="AM2">
-        <v>8</v>
-      </c>
-      <c r="AN2">
-        <v>8</v>
-      </c>
-      <c r="AO2">
-        <v>8</v>
-      </c>
-      <c r="AP2">
-        <v>8</v>
-      </c>
-      <c r="AQ2">
-        <v>8</v>
-      </c>
-      <c r="AR2">
-        <v>8</v>
-      </c>
-      <c r="AS2">
-        <v>8</v>
-      </c>
-      <c r="AT2">
-        <v>8</v>
-      </c>
-      <c r="AU2">
-        <v>8</v>
-      </c>
-      <c r="AV2">
-        <v>8</v>
-      </c>
-      <c r="AW2">
-        <v>8</v>
-      </c>
-      <c r="AX2">
-        <v>8</v>
-      </c>
-      <c r="AY2">
-        <v>8</v>
-      </c>
-      <c r="AZ2">
-        <v>8</v>
-      </c>
-      <c r="BA2">
-        <v>8</v>
-      </c>
-      <c r="BB2">
-        <v>8</v>
-      </c>
-      <c r="BC2">
-        <v>8</v>
-      </c>
-      <c r="BD2">
-        <v>8</v>
-      </c>
-      <c r="BE2">
-        <v>8</v>
-      </c>
-      <c r="BF2">
-        <v>8</v>
-      </c>
-      <c r="BG2">
-        <v>8</v>
-      </c>
-      <c r="BH2">
-        <v>8</v>
-      </c>
-      <c r="BI2">
-        <v>8</v>
-      </c>
-      <c r="BJ2">
-        <v>8</v>
-      </c>
-      <c r="BK2">
-        <v>8</v>
-      </c>
-      <c r="BL2">
-        <v>8</v>
-      </c>
-      <c r="BM2">
-        <v>8</v>
-      </c>
-      <c r="BN2">
-        <v>8</v>
-      </c>
-      <c r="BO2">
-        <v>8</v>
-      </c>
-      <c r="BP2">
-        <v>8</v>
-      </c>
-      <c r="BQ2">
-        <v>8</v>
-      </c>
-      <c r="BR2">
-        <v>8</v>
-      </c>
-      <c r="BS2">
-        <v>8</v>
-      </c>
-      <c r="BT2">
-        <v>8</v>
-      </c>
-      <c r="BU2">
-        <v>8</v>
-      </c>
-      <c r="BV2">
-        <v>8</v>
-      </c>
-      <c r="BW2">
-        <v>8</v>
-      </c>
-      <c r="BX2">
-        <v>8</v>
-      </c>
-      <c r="BY2">
-        <v>8</v>
-      </c>
-      <c r="BZ2">
-        <v>8</v>
-      </c>
-      <c r="CA2">
-        <v>8</v>
-      </c>
-      <c r="CB2">
-        <v>8</v>
-      </c>
-      <c r="CC2">
-        <v>8</v>
-      </c>
-      <c r="CD2">
-        <v>8</v>
-      </c>
-      <c r="CE2">
-        <v>8</v>
-      </c>
-      <c r="CF2">
-        <v>8</v>
-      </c>
-      <c r="CG2">
-        <v>8</v>
-      </c>
-      <c r="CH2">
-        <v>8</v>
-      </c>
-      <c r="CI2">
-        <v>8</v>
-      </c>
-      <c r="CJ2">
-        <v>8</v>
-      </c>
-      <c r="CK2">
-        <v>8</v>
-      </c>
-      <c r="CL2">
-        <v>8</v>
-      </c>
-      <c r="CM2">
-        <v>8</v>
-      </c>
-      <c r="CN2">
-        <v>8</v>
-      </c>
-      <c r="CO2">
-        <v>8</v>
-      </c>
-      <c r="CP2">
-        <v>8</v>
-      </c>
-      <c r="CQ2">
-        <v>8</v>
-      </c>
-      <c r="CR2">
-        <v>8</v>
-      </c>
-      <c r="CS2">
-        <v>8</v>
-      </c>
-      <c r="CT2">
-        <v>8</v>
-      </c>
-      <c r="CU2">
-        <v>8</v>
-      </c>
-      <c r="CV2">
-        <v>8</v>
-      </c>
-      <c r="CW2">
-        <v>8</v>
-      </c>
-      <c r="CX2">
-        <v>8</v>
-      </c>
-      <c r="CY2">
-        <v>8</v>
-      </c>
-      <c r="CZ2">
-        <v>8</v>
-      </c>
-      <c r="DA2">
-        <v>8</v>
-      </c>
-      <c r="DB2">
-        <v>8</v>
-      </c>
-      <c r="DC2">
-        <v>8</v>
-      </c>
-      <c r="DD2">
-        <v>8</v>
-      </c>
-      <c r="DE2">
-        <v>8</v>
-      </c>
-      <c r="DF2">
-        <v>8</v>
-      </c>
-      <c r="DG2">
-        <v>8</v>
-      </c>
-      <c r="DH2">
-        <v>8</v>
-      </c>
-      <c r="DI2">
-        <v>8</v>
-      </c>
-      <c r="DJ2">
-        <v>8</v>
-      </c>
-      <c r="DK2">
-        <v>8</v>
-      </c>
-      <c r="DL2">
-        <v>8</v>
-      </c>
-      <c r="DM2">
-        <v>8</v>
-      </c>
-      <c r="DN2">
-        <v>8</v>
-      </c>
-      <c r="DO2">
-        <v>8</v>
-      </c>
-      <c r="DP2">
-        <v>8</v>
-      </c>
-      <c r="DQ2">
-        <v>8</v>
-      </c>
-      <c r="DR2">
-        <v>8</v>
-      </c>
-      <c r="DS2">
-        <v>8</v>
-      </c>
-      <c r="DT2">
-        <v>8</v>
-      </c>
-      <c r="DU2">
-        <v>8</v>
-      </c>
-      <c r="DV2">
-        <v>8</v>
-      </c>
-      <c r="DW2">
-        <v>8</v>
-      </c>
-      <c r="DX2">
-        <v>8</v>
-      </c>
-      <c r="DY2">
-        <v>8</v>
-      </c>
-      <c r="DZ2">
-        <v>7</v>
-      </c>
-      <c r="EA2">
-        <v>6</v>
-      </c>
-      <c r="EB2">
-        <v>5</v>
-      </c>
-      <c r="EC2">
-        <v>4</v>
-      </c>
-      <c r="ED2">
-        <v>3</v>
-      </c>
-      <c r="EE2">
-        <v>2</v>
-      </c>
-      <c r="EF2">
-        <v>1</v>
-      </c>
-      <c r="EG2">
-        <v>0</v>
-      </c>
-      <c r="EH2">
-        <v>-1</v>
-      </c>
-      <c r="EI2">
-        <v>-2</v>
-      </c>
-      <c r="EJ2">
-        <v>-3</v>
-      </c>
-      <c r="EK2">
-        <v>-4</v>
-      </c>
-      <c r="EL2">
-        <v>-5</v>
-      </c>
-      <c r="EM2">
-        <v>-6</v>
-      </c>
-      <c r="EN2">
-        <v>-7</v>
-      </c>
-      <c r="EO2">
-        <v>-8</v>
-      </c>
-      <c r="EP2">
-        <v>-9</v>
-      </c>
-      <c r="EQ2">
-        <v>-10</v>
-      </c>
-      <c r="ER2">
-        <v>-11</v>
-      </c>
-      <c r="ES2">
-        <v>-12</v>
-      </c>
-      <c r="ET2">
-        <v>-13</v>
-      </c>
-      <c r="EU2">
-        <v>-14</v>
-      </c>
-      <c r="EV2">
-        <v>-15</v>
-      </c>
-      <c r="EW2">
-        <v>-16</v>
-      </c>
-      <c r="EX2">
-        <v>-16</v>
-      </c>
-      <c r="EY2">
-        <v>-16</v>
-      </c>
-      <c r="EZ2">
-        <v>-16</v>
-      </c>
-      <c r="FA2">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:157" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>O4+16</f>
         <v>0</v>
@@ -3265,11 +2842,33 @@
         <f>CONCATENATE(A4,", ",B4,", ",C4,", ",D4,", ",E4,",","")</f>
         <v>0, 0, 0, 4, 0,</v>
       </c>
+      <c r="H4">
+        <f>A4</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="str">
+        <f>CONCATENATE(H4,", ",I4,", ",J4,", ",K4,", ",L4,",","")</f>
+        <v>0, 0, 0, 1, 0,</v>
+      </c>
       <c r="O4" s="2">
         <v>-16</v>
       </c>
     </row>
-    <row r="5" spans="1:157" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ref="A5:A68" si="0">O5+16</f>
         <v>1</v>
@@ -3290,11 +2889,33 @@
         <f t="shared" ref="F5:F68" si="1">CONCATENATE(A5,", ",B5,", ",C5,", ",D5,", ",E5,",","")</f>
         <v>1, 0, 0, 4, 0,</v>
       </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H68" si="2">A5</f>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I68" si="3">B5</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J68" si="4">C5</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" ref="M5:M68" si="5">CONCATENATE(H5,", ",I5,", ",J5,", ",K5,", ",L5,",","")</f>
+        <v>1, 0, 0, 1, 0,</v>
+      </c>
       <c r="O5">
         <v>-15</v>
       </c>
     </row>
-    <row r="6" spans="1:157" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3315,11 +2936,33 @@
         <f t="shared" si="1"/>
         <v>2, 0, 0, 5, 0,</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="5"/>
+        <v>2, 0, 0, 2, 0,</v>
+      </c>
       <c r="O6">
         <v>-14</v>
       </c>
     </row>
-    <row r="7" spans="1:157" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3340,11 +2983,33 @@
         <f t="shared" si="1"/>
         <v>3, 0, 0, 5, 0,</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="5"/>
+        <v>3, 0, 0, 2, 0,</v>
+      </c>
       <c r="O7">
         <v>-13</v>
       </c>
     </row>
-    <row r="8" spans="1:157" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3356,20 +3021,42 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>4, 0, 0, 4, 0,</v>
+        <v>4, 0, 0, 3, 0,</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="5"/>
+        <v>4, 0, 0, 0, 0,</v>
       </c>
       <c r="O8">
         <v>-12</v>
       </c>
     </row>
-    <row r="9" spans="1:157" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3381,20 +3068,42 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>6, 0, 0, 4, 0,</v>
+        <v>6, 0, 0, 3, 0,</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="5"/>
+        <v>6, 0, 0, 0, 0,</v>
       </c>
       <c r="O9">
         <v>-10</v>
       </c>
     </row>
-    <row r="10" spans="1:157" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3406,20 +3115,42 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>7, 0, 0, 5, 0,</v>
+        <v>7, 0, 0, 4, 0,</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="5"/>
+        <v>7, 0, 0, 1, 0,</v>
       </c>
       <c r="O10">
         <v>-9</v>
       </c>
     </row>
-    <row r="11" spans="1:157" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3431,20 +3162,42 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>8, 0, 0, 5, 0,</v>
+        <v>8, 0, 0, 4, 0,</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="5"/>
+        <v>8, 0, 0, 1, 0,</v>
       </c>
       <c r="O11">
         <v>-8</v>
       </c>
     </row>
-    <row r="12" spans="1:157" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3456,20 +3209,42 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>9, 0, 0, 4, 0,</v>
+        <v>9, 0, 0, 5, 0,</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="5"/>
+        <v>9, 0, 0, 2, 0,</v>
       </c>
       <c r="O12">
         <v>-7</v>
       </c>
     </row>
-    <row r="13" spans="1:157" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3481,20 +3256,42 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>10, 0, 0, 4, 0,</v>
+        <v>10, 0, 0, 5, 0,</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="5"/>
+        <v>10, 0, 0, 2, 0,</v>
       </c>
       <c r="O13">
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:157" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3506,20 +3303,42 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>11, 0, 0, 5, 0,</v>
+        <v>11, 0, 0, 3, 0,</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="5"/>
+        <v>11, 0, 0, 0, 0,</v>
       </c>
       <c r="O14">
         <v>-5</v>
       </c>
     </row>
-    <row r="15" spans="1:157" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3531,20 +3350,42 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>12, 0, 0, 5, 0,</v>
+        <v>12, 0, 0, 3, 0,</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="5"/>
+        <v>12, 0, 0, 0, 0,</v>
       </c>
       <c r="O15">
         <v>-4</v>
       </c>
     </row>
-    <row r="16" spans="1:157" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3564,6 +3405,28 @@
       <c r="F16" t="str">
         <f t="shared" si="1"/>
         <v>13, 0, 0, 4, 0,</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="5"/>
+        <v>13, 0, 0, 1, 0,</v>
       </c>
       <c r="O16">
         <v>-3</v>
@@ -3590,6 +3453,28 @@
         <f t="shared" si="1"/>
         <v>14, 0, 0, 4, 0,</v>
       </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="5"/>
+        <v>14, 0, 0, 1, 0,</v>
+      </c>
       <c r="O17">
         <v>-2</v>
       </c>
@@ -3615,6 +3500,28 @@
         <f t="shared" si="1"/>
         <v>15, 0, 0, 5, 0,</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="5"/>
+        <v>15, 0, 0, 2, 0,</v>
+      </c>
       <c r="O18">
         <v>-1</v>
       </c>
@@ -3640,6 +3547,28 @@
         <f t="shared" si="1"/>
         <v>16, 0, 0, 5, 0,</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="5"/>
+        <v>16, 0, 0, 2, 0,</v>
+      </c>
       <c r="O19">
         <v>0</v>
       </c>
@@ -3656,14 +3585,36 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>17, 0, 0, 4, 0,</v>
+        <v>17, 0, 0, 3, 0,</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="5"/>
+        <v>17, 0, 0, 0, 0,</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -3681,14 +3632,36 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>18, 0, 0, 4, 0,</v>
+        <v>18, 0, 0, 3, 0,</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="5"/>
+        <v>18, 0, 0, 0, 0,</v>
       </c>
       <c r="O21">
         <v>2</v>
@@ -3706,14 +3679,36 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>19, 0, 0, 5, 0,</v>
+        <v>19, 0, 0, 4, 0,</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="5"/>
+        <v>19, 0, 0, 1, 0,</v>
       </c>
       <c r="O22">
         <v>3</v>
@@ -3731,14 +3726,36 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>20, 1, 0, 5, 0,</v>
+        <v>20, 1, 0, 4, 0,</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="5"/>
+        <v>20, 1, 0, 1, 0,</v>
       </c>
       <c r="O23">
         <v>4</v>
@@ -3765,6 +3782,28 @@
         <f t="shared" si="1"/>
         <v>21, 2, 0, 5, 0,</v>
       </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="5"/>
+        <v>21, 2, 0, 2, 0,</v>
+      </c>
       <c r="O24">
         <v>5</v>
       </c>
@@ -3781,14 +3820,36 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
-        <v>22, 3, 0, 4, 0,</v>
+        <v>22, 3, 0, 5, 0,</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="5"/>
+        <v>22, 3, 0, 2, 0,</v>
       </c>
       <c r="O25">
         <v>6</v>
@@ -3806,14 +3867,36 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
-        <v>23, 4, 0, 4, 0,</v>
+        <v>23, 4, 0, 3, 0,</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="5"/>
+        <v>23, 4, 0, 0, 0,</v>
       </c>
       <c r="O26">
         <v>7</v>
@@ -3840,6 +3923,28 @@
         <f t="shared" si="1"/>
         <v>24, 5, 0, 3, 1,</v>
       </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 5, 0, 0, 1,</v>
+      </c>
       <c r="O27">
         <v>8</v>
       </c>
@@ -3865,6 +3970,28 @@
         <f t="shared" si="1"/>
         <v>24, 6, 0, 3, 1,</v>
       </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 6, 0, 0, 1,</v>
+      </c>
       <c r="O28">
         <v>8</v>
       </c>
@@ -3890,6 +4017,28 @@
         <f t="shared" si="1"/>
         <v>24, 7, 0, 3, 1,</v>
       </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 7, 0, 0, 1,</v>
+      </c>
       <c r="O29">
         <v>8</v>
       </c>
@@ -3915,6 +4064,28 @@
         <f t="shared" si="1"/>
         <v>24, 8, 0, 3, 1,</v>
       </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 8, 0, 0, 1,</v>
+      </c>
       <c r="O30">
         <v>8</v>
       </c>
@@ -3940,6 +4111,28 @@
         <f t="shared" si="1"/>
         <v>24, 9, 0, 3, 1,</v>
       </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 9, 0, 0, 1,</v>
+      </c>
       <c r="O31">
         <v>8</v>
       </c>
@@ -3965,6 +4158,28 @@
         <f t="shared" si="1"/>
         <v>24, 10, 0, 3, 1,</v>
       </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 10, 0, 0, 1,</v>
+      </c>
       <c r="O32">
         <v>8</v>
       </c>
@@ -3990,6 +4205,28 @@
         <f t="shared" si="1"/>
         <v>24, 11, 0, 3, 1,</v>
       </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 11, 0, 0, 1,</v>
+      </c>
       <c r="O33">
         <v>8</v>
       </c>
@@ -4015,6 +4252,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O34">
         <v>8</v>
       </c>
@@ -4040,6 +4299,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O35">
         <v>8</v>
       </c>
@@ -4065,6 +4346,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O36">
         <v>8</v>
       </c>
@@ -4090,6 +4393,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O37">
         <v>8</v>
       </c>
@@ -4115,6 +4440,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O38">
         <v>8</v>
       </c>
@@ -4140,6 +4487,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O39">
         <v>8</v>
       </c>
@@ -4165,6 +4534,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O40">
         <v>8</v>
       </c>
@@ -4190,6 +4581,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O41">
         <v>8</v>
       </c>
@@ -4215,6 +4628,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O42">
         <v>8</v>
       </c>
@@ -4240,6 +4675,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O43">
         <v>8</v>
       </c>
@@ -4265,6 +4722,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O44">
         <v>8</v>
       </c>
@@ -4290,6 +4769,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O45">
         <v>8</v>
       </c>
@@ -4315,6 +4816,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O46">
         <v>8</v>
       </c>
@@ -4340,6 +4863,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O47">
         <v>8</v>
       </c>
@@ -4365,6 +4910,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O48">
         <v>8</v>
       </c>
@@ -4390,6 +4957,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O49">
         <v>8</v>
       </c>
@@ -4415,6 +5004,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O50">
         <v>8</v>
       </c>
@@ -4440,6 +5051,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O51">
         <v>8</v>
       </c>
@@ -4465,6 +5098,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O52">
         <v>8</v>
       </c>
@@ -4490,6 +5145,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O53">
         <v>8</v>
       </c>
@@ -4515,6 +5192,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O54">
         <v>8</v>
       </c>
@@ -4540,6 +5239,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O55">
         <v>8</v>
       </c>
@@ -4565,6 +5286,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O56">
         <v>8</v>
       </c>
@@ -4590,6 +5333,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O57">
         <v>8</v>
       </c>
@@ -4615,6 +5380,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O58">
         <v>8</v>
       </c>
@@ -4640,6 +5427,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O59">
         <v>8</v>
       </c>
@@ -4665,6 +5474,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O60">
         <v>8</v>
       </c>
@@ -4690,6 +5521,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O61">
         <v>8</v>
       </c>
@@ -4715,6 +5568,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O62">
         <v>8</v>
       </c>
@@ -4740,6 +5615,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O63">
         <v>8</v>
       </c>
@@ -4765,6 +5662,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O64">
         <v>8</v>
       </c>
@@ -4790,6 +5709,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O65">
         <v>8</v>
       </c>
@@ -4815,6 +5756,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O66">
         <v>8</v>
       </c>
@@ -4840,6 +5803,28 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H67">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O67">
         <v>8</v>
       </c>
@@ -4865,13 +5850,35 @@
         <f t="shared" si="1"/>
         <v>24, 12, 0, 3, 1,</v>
       </c>
+      <c r="H68">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="5"/>
+        <v>24, 12, 0, 0, 1,</v>
+      </c>
       <c r="O68">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f t="shared" ref="A69:A132" si="2">O69+16</f>
+        <f t="shared" ref="A69:A132" si="6">O69+16</f>
         <v>24</v>
       </c>
       <c r="B69">
@@ -4887,8 +5894,30 @@
         <v>1</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" ref="F69:F132" si="3">CONCATENATE(A69,", ",B69,", ",C69,", ",D69,", ",E69,",","")</f>
+        <f t="shared" ref="F69:F132" si="7">CONCATENATE(A69,", ",B69,", ",C69,", ",D69,", ",E69,",","")</f>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ref="H69:H132" si="8">A69</f>
+        <v>24</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ref="I69:I132" si="9">B69</f>
+        <v>12</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ref="J69:J132" si="10">C69</f>
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" ref="M69:M132" si="11">CONCATENATE(H69,", ",I69,", ",J69,", ",K69,", ",L69,",","")</f>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O69">
         <v>8</v>
@@ -4896,7 +5925,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B70">
@@ -4912,8 +5941,30 @@
         <v>1</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O70">
         <v>8</v>
@@ -4921,7 +5972,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B71">
@@ -4937,8 +5988,30 @@
         <v>1</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O71">
         <v>8</v>
@@ -4946,7 +6019,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B72">
@@ -4962,8 +6035,30 @@
         <v>1</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O72">
         <v>8</v>
@@ -4971,7 +6066,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B73">
@@ -4987,8 +6082,30 @@
         <v>1</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O73">
         <v>8</v>
@@ -4996,7 +6113,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B74">
@@ -5012,8 +6129,30 @@
         <v>1</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 6, 1,</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>10</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 10, 1,</v>
       </c>
       <c r="O74">
         <v>8</v>
@@ -5021,7 +6160,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B75">
@@ -5037,8 +6176,30 @@
         <v>1</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 6, 1,</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>10</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 10, 1,</v>
       </c>
       <c r="O75">
         <v>8</v>
@@ -5046,7 +6207,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B76">
@@ -5062,8 +6223,30 @@
         <v>1</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 6, 1,</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>10</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 10, 1,</v>
       </c>
       <c r="O76">
         <v>8</v>
@@ -5071,7 +6254,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B77">
@@ -5087,8 +6270,30 @@
         <v>1</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O77">
         <v>8</v>
@@ -5096,7 +6301,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B78">
@@ -5112,8 +6317,30 @@
         <v>1</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O78">
         <v>8</v>
@@ -5121,7 +6348,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B79">
@@ -5137,8 +6364,30 @@
         <v>1</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 6, 1,</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>10</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 10, 1,</v>
       </c>
       <c r="O79">
         <v>8</v>
@@ -5146,7 +6395,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B80">
@@ -5162,8 +6411,30 @@
         <v>1</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 6, 1,</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>10</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 10, 1,</v>
       </c>
       <c r="O80">
         <v>8</v>
@@ -5171,7 +6442,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B81">
@@ -5187,8 +6458,30 @@
         <v>1</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 6, 1,</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>10</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 10, 1,</v>
       </c>
       <c r="O81">
         <v>8</v>
@@ -5196,7 +6489,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B82">
@@ -5212,8 +6505,30 @@
         <v>1</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O82">
         <v>8</v>
@@ -5221,7 +6536,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B83">
@@ -5237,8 +6552,30 @@
         <v>1</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O83">
         <v>8</v>
@@ -5246,7 +6583,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B84">
@@ -5262,8 +6599,30 @@
         <v>1</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O84">
         <v>8</v>
@@ -5271,7 +6630,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B85">
@@ -5287,8 +6646,30 @@
         <v>1</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O85">
         <v>8</v>
@@ -5296,7 +6677,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B86">
@@ -5312,8 +6693,30 @@
         <v>1</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O86">
         <v>8</v>
@@ -5321,7 +6724,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B87">
@@ -5337,8 +6740,30 @@
         <v>1</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O87">
         <v>8</v>
@@ -5346,7 +6771,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B88">
@@ -5362,8 +6787,30 @@
         <v>1</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O88">
         <v>8</v>
@@ -5371,7 +6818,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B89">
@@ -5387,8 +6834,30 @@
         <v>1</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O89">
         <v>8</v>
@@ -5396,7 +6865,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B90">
@@ -5412,8 +6881,30 @@
         <v>1</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O90">
         <v>8</v>
@@ -5421,7 +6912,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B91">
@@ -5437,8 +6928,30 @@
         <v>1</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O91">
         <v>8</v>
@@ -5446,7 +6959,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B92">
@@ -5462,8 +6975,30 @@
         <v>1</v>
       </c>
       <c r="F92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O92">
         <v>8</v>
@@ -5471,7 +7006,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B93">
@@ -5487,8 +7022,30 @@
         <v>1</v>
       </c>
       <c r="F93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O93">
         <v>8</v>
@@ -5496,7 +7053,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B94">
@@ -5512,8 +7069,30 @@
         <v>1</v>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O94">
         <v>8</v>
@@ -5521,7 +7100,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B95">
@@ -5537,8 +7116,30 @@
         <v>1</v>
       </c>
       <c r="F95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O95">
         <v>8</v>
@@ -5546,7 +7147,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B96">
@@ -5562,8 +7163,30 @@
         <v>1</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O96">
         <v>8</v>
@@ -5571,7 +7194,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B97">
@@ -5587,8 +7210,30 @@
         <v>1</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O97">
         <v>8</v>
@@ -5596,7 +7241,7 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B98">
@@ -5612,8 +7257,30 @@
         <v>1</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O98">
         <v>8</v>
@@ -5621,7 +7288,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B99">
@@ -5637,8 +7304,30 @@
         <v>1</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O99">
         <v>8</v>
@@ -5646,7 +7335,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B100">
@@ -5662,8 +7351,30 @@
         <v>1</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O100">
         <v>8</v>
@@ -5671,7 +7382,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B101">
@@ -5687,8 +7398,30 @@
         <v>1</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 1,</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 1,</v>
       </c>
       <c r="O101">
         <v>8</v>
@@ -5696,7 +7429,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B102">
@@ -5712,8 +7445,30 @@
         <v>1</v>
       </c>
       <c r="F102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 7, 1,</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>11</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 11, 1,</v>
       </c>
       <c r="O102">
         <v>8</v>
@@ -5721,7 +7476,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B103">
@@ -5737,8 +7492,30 @@
         <v>1</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 7, 1,</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>11</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 11, 1,</v>
       </c>
       <c r="O103">
         <v>8</v>
@@ -5746,7 +7523,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B104">
@@ -5762,8 +7539,30 @@
         <v>1</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 7, 1,</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>11</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 11, 1,</v>
       </c>
       <c r="O104">
         <v>8</v>
@@ -5771,7 +7570,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B105">
@@ -5787,8 +7586,30 @@
         <v>1</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 7, 1,</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>11</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 11, 1,</v>
       </c>
       <c r="O105">
         <v>8</v>
@@ -5796,7 +7617,7 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B106">
@@ -5812,8 +7633,30 @@
         <v>1</v>
       </c>
       <c r="F106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 7, 1,</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>11</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 11, 1,</v>
       </c>
       <c r="O106">
         <v>8</v>
@@ -5821,7 +7664,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B107">
@@ -5837,8 +7680,30 @@
         <v>1</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 7, 1,</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>11</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 11, 1,</v>
       </c>
       <c r="O107">
         <v>8</v>
@@ -5846,7 +7711,7 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B108">
@@ -5862,8 +7727,30 @@
         <v>1</v>
       </c>
       <c r="F108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 7, 1,</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>11</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 11, 1,</v>
       </c>
       <c r="O108">
         <v>8</v>
@@ -5871,7 +7758,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B109">
@@ -5887,8 +7774,30 @@
         <v>1</v>
       </c>
       <c r="F109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 7, 1,</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>11</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 11, 1,</v>
       </c>
       <c r="O109">
         <v>8</v>
@@ -5896,7 +7805,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B110">
@@ -5912,8 +7821,30 @@
         <v>1</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 7, 1,</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>11</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 11, 1,</v>
       </c>
       <c r="O110">
         <v>8</v>
@@ -5921,7 +7852,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B111">
@@ -5937,8 +7868,30 @@
         <v>1</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 7, 1,</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>11</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 11, 1,</v>
       </c>
       <c r="O111">
         <v>8</v>
@@ -5946,7 +7899,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B112">
@@ -5962,8 +7915,30 @@
         <v>1</v>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 7, 1,</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>11</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 11, 1,</v>
       </c>
       <c r="O112">
         <v>8</v>
@@ -5971,7 +7946,7 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B113">
@@ -5987,8 +7962,30 @@
         <v>1</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 7, 1,</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>11</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 11, 1,</v>
       </c>
       <c r="O113">
         <v>8</v>
@@ -5996,7 +7993,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B114">
@@ -6012,8 +8009,30 @@
         <v>1</v>
       </c>
       <c r="F114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 7, 1,</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>11</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 11, 1,</v>
       </c>
       <c r="O114">
         <v>8</v>
@@ -6021,7 +8040,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B115">
@@ -6037,8 +8056,30 @@
         <v>1</v>
       </c>
       <c r="F115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 3, 1,</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 0, 1,</v>
       </c>
       <c r="O115">
         <v>8</v>
@@ -6046,7 +8087,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B116">
@@ -6062,8 +8103,30 @@
         <v>2</v>
       </c>
       <c r="F116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 3, 2,</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 0, 2,</v>
       </c>
       <c r="O116">
         <v>8</v>
@@ -6071,7 +8134,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B117">
@@ -6087,8 +8150,30 @@
         <v>2</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 3, 2,</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 0, 2,</v>
       </c>
       <c r="O117">
         <v>8</v>
@@ -6096,7 +8181,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B118">
@@ -6112,8 +8197,30 @@
         <v>2</v>
       </c>
       <c r="F118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 3, 2,</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 0, 2,</v>
       </c>
       <c r="O118">
         <v>8</v>
@@ -6121,7 +8228,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B119">
@@ -6137,8 +8244,30 @@
         <v>2</v>
       </c>
       <c r="F119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 3, 2,</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 0, 2,</v>
       </c>
       <c r="O119">
         <v>8</v>
@@ -6146,7 +8275,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B120">
@@ -6162,8 +8291,30 @@
         <v>2</v>
       </c>
       <c r="F120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 3, 2,</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 0, 2,</v>
       </c>
       <c r="O120">
         <v>8</v>
@@ -6171,7 +8322,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B121">
@@ -6187,8 +8338,30 @@
         <v>2</v>
       </c>
       <c r="F121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 1, 3, 2,</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 1, 0, 2,</v>
       </c>
       <c r="O121">
         <v>8</v>
@@ -6196,7 +8369,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B122">
@@ -6212,8 +8385,30 @@
         <v>2</v>
       </c>
       <c r="F122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 2,</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 2,</v>
       </c>
       <c r="O122">
         <v>8</v>
@@ -6221,7 +8416,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B123">
@@ -6237,8 +8432,30 @@
         <v>2</v>
       </c>
       <c r="F123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 2,</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 2,</v>
       </c>
       <c r="O123">
         <v>8</v>
@@ -6246,7 +8463,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B124">
@@ -6262,8 +8479,30 @@
         <v>2</v>
       </c>
       <c r="F124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 2,</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 2,</v>
       </c>
       <c r="O124">
         <v>8</v>
@@ -6271,7 +8510,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B125">
@@ -6287,8 +8526,30 @@
         <v>2</v>
       </c>
       <c r="F125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 2,</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 2,</v>
       </c>
       <c r="O125">
         <v>8</v>
@@ -6296,7 +8557,7 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B126">
@@ -6312,8 +8573,30 @@
         <v>2</v>
       </c>
       <c r="F126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 2,</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 2,</v>
       </c>
       <c r="O126">
         <v>8</v>
@@ -6321,7 +8604,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B127">
@@ -6337,8 +8620,30 @@
         <v>2</v>
       </c>
       <c r="F127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 2,</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 2,</v>
       </c>
       <c r="O127">
         <v>8</v>
@@ -6346,7 +8651,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B128">
@@ -6362,8 +8667,30 @@
         <v>2</v>
       </c>
       <c r="F128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 2,</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 2,</v>
       </c>
       <c r="O128">
         <v>8</v>
@@ -6371,7 +8698,7 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B129">
@@ -6387,8 +8714,30 @@
         <v>2</v>
       </c>
       <c r="F129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 3, 2,</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 0, 2,</v>
       </c>
       <c r="O129">
         <v>8</v>
@@ -6396,7 +8745,7 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B130">
@@ -6412,8 +8761,30 @@
         <v>2</v>
       </c>
       <c r="F130" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 0, 2,</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 3, 2,</v>
       </c>
       <c r="O130">
         <v>8</v>
@@ -6421,7 +8792,7 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B131">
@@ -6437,8 +8808,30 @@
         <v>2</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24, 12, 0, 0, 2,</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>3</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131" t="str">
+        <f t="shared" si="11"/>
+        <v>24, 12, 0, 3, 2,</v>
       </c>
       <c r="O131">
         <v>8</v>
@@ -6446,7 +8839,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="B132">
@@ -6462,8 +8855,30 @@
         <v>2</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23, 12, 0, 1, 2,</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>4</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132" t="str">
+        <f t="shared" si="11"/>
+        <v>23, 12, 0, 4, 2,</v>
       </c>
       <c r="O132">
         <v>7</v>
@@ -6471,7 +8886,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133">
-        <f t="shared" ref="A133:A159" si="4">O133+16</f>
+        <f t="shared" ref="A133:A159" si="12">O133+16</f>
         <v>22</v>
       </c>
       <c r="B133">
@@ -6487,8 +8902,30 @@
         <v>2</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" ref="F133:F159" si="5">CONCATENATE(A133,", ",B133,", ",C133,", ",D133,", ",E133,",","")</f>
+        <f t="shared" ref="F133:F159" si="13">CONCATENATE(A133,", ",B133,", ",C133,", ",D133,", ",E133,",","")</f>
         <v>22, 12, 0, 1, 2,</v>
+      </c>
+      <c r="H133">
+        <f t="shared" ref="H133:H159" si="14">A133</f>
+        <v>22</v>
+      </c>
+      <c r="I133">
+        <f t="shared" ref="I133:I159" si="15">B133</f>
+        <v>12</v>
+      </c>
+      <c r="J133">
+        <f t="shared" ref="J133:J159" si="16">C133</f>
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>4</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133" t="str">
+        <f t="shared" ref="M133:M159" si="17">CONCATENATE(H133,", ",I133,", ",J133,", ",K133,", ",L133,",","")</f>
+        <v>22, 12, 0, 4, 2,</v>
       </c>
       <c r="O133">
         <v>6</v>
@@ -6496,7 +8933,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="B134">
@@ -6512,8 +8949,30 @@
         <v>2</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>21, 12, 0, 2, 2,</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>5</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134" t="str">
+        <f t="shared" si="17"/>
+        <v>21, 12, 0, 5, 2,</v>
       </c>
       <c r="O134">
         <v>5</v>
@@ -6521,7 +8980,7 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="B135">
@@ -6537,8 +8996,30 @@
         <v>2</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>20, 12, 0, 2, 2,</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>5</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135" t="str">
+        <f t="shared" si="17"/>
+        <v>20, 12, 0, 5, 2,</v>
       </c>
       <c r="O135">
         <v>4</v>
@@ -6546,7 +9027,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="B136">
@@ -6556,14 +9037,36 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>2</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" si="5"/>
-        <v>19, 12, 0, 1, 2,</v>
+        <f t="shared" si="13"/>
+        <v>19, 12, 0, 0, 2,</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136" t="str">
+        <f t="shared" si="17"/>
+        <v>19, 12, 0, 3, 2,</v>
       </c>
       <c r="O136">
         <v>3</v>
@@ -6571,7 +9074,7 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="B137">
@@ -6581,14 +9084,36 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <v>2</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="5"/>
-        <v>18, 12, 0, 1, 2,</v>
+        <f t="shared" si="13"/>
+        <v>18, 12, 0, 0, 2,</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>3</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137" t="str">
+        <f t="shared" si="17"/>
+        <v>18, 12, 0, 3, 2,</v>
       </c>
       <c r="O137">
         <v>2</v>
@@ -6596,7 +9121,7 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="B138">
@@ -6606,14 +9131,36 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138">
         <v>2</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" si="5"/>
-        <v>17, 12, 0, 2, 2,</v>
+        <f t="shared" si="13"/>
+        <v>17, 12, 0, 1, 2,</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>4</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138" t="str">
+        <f t="shared" si="17"/>
+        <v>17, 12, 0, 4, 2,</v>
       </c>
       <c r="O138">
         <v>1</v>
@@ -6621,7 +9168,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="B139">
@@ -6631,14 +9178,36 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139">
         <v>2</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="5"/>
-        <v>16, 12, 0, 2, 2,</v>
+        <f t="shared" si="13"/>
+        <v>16, 12, 0, 1, 2,</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>4</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139" t="str">
+        <f t="shared" si="17"/>
+        <v>16, 12, 0, 4, 2,</v>
       </c>
       <c r="O139">
         <v>0</v>
@@ -6646,7 +9215,7 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="B140">
@@ -6656,14 +9225,36 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140">
         <v>2</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="5"/>
-        <v>15, 12, 0, 1, 2,</v>
+        <f t="shared" si="13"/>
+        <v>15, 12, 0, 2, 2,</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>5</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140" t="str">
+        <f t="shared" si="17"/>
+        <v>15, 12, 0, 5, 2,</v>
       </c>
       <c r="O140">
         <v>-1</v>
@@ -6671,7 +9262,7 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="B141">
@@ -6681,14 +9272,36 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141">
         <v>2</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="5"/>
-        <v>14, 12, 0, 1, 2,</v>
+        <f t="shared" si="13"/>
+        <v>14, 12, 0, 2, 2,</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>5</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141" t="str">
+        <f t="shared" si="17"/>
+        <v>14, 12, 0, 5, 2,</v>
       </c>
       <c r="O141">
         <v>-2</v>
@@ -6696,7 +9309,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="B142">
@@ -6706,14 +9319,36 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E142">
         <v>2</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="5"/>
-        <v>13, 12, 0, 2, 2,</v>
+        <f t="shared" si="13"/>
+        <v>13, 12, 0, 0, 2,</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>3</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142" t="str">
+        <f t="shared" si="17"/>
+        <v>13, 12, 0, 3, 2,</v>
       </c>
       <c r="O142">
         <v>-3</v>
@@ -6721,7 +9356,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="B143">
@@ -6731,14 +9366,36 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E143">
         <v>2</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="5"/>
-        <v>12, 12, 0, 2, 2,</v>
+        <f t="shared" si="13"/>
+        <v>12, 12, 0, 0, 2,</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>3</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143" t="str">
+        <f t="shared" si="17"/>
+        <v>12, 12, 0, 3, 2,</v>
       </c>
       <c r="O143">
         <v>-4</v>
@@ -6746,7 +9403,7 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="B144">
@@ -6762,8 +9419,30 @@
         <v>2</v>
       </c>
       <c r="F144" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>11, 12, 0, 1, 2,</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>4</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144" t="str">
+        <f t="shared" si="17"/>
+        <v>11, 12, 0, 4, 2,</v>
       </c>
       <c r="O144">
         <v>-5</v>
@@ -6771,7 +9450,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="B145">
@@ -6787,8 +9466,30 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>10, 12, 0, 1, 0,</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>4</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145" t="str">
+        <f t="shared" si="17"/>
+        <v>10, 12, 0, 4, 0,</v>
       </c>
       <c r="O145">
         <v>-6</v>
@@ -6796,7 +9497,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="B146">
@@ -6812,8 +9513,30 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>9, 12, 0, 2, 0,</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>5</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146" t="str">
+        <f t="shared" si="17"/>
+        <v>9, 12, 0, 5, 0,</v>
       </c>
       <c r="O146">
         <v>-7</v>
@@ -6821,7 +9544,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="B147">
@@ -6837,8 +9560,30 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>8, 12, 0, 2, 0,</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>5</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147" t="str">
+        <f t="shared" si="17"/>
+        <v>8, 12, 0, 5, 0,</v>
       </c>
       <c r="O147">
         <v>-8</v>
@@ -6846,7 +9591,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="B148">
@@ -6856,14 +9601,36 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" si="5"/>
-        <v>7, 11, 0, 1, 0,</v>
+        <f t="shared" si="13"/>
+        <v>7, 11, 0, 0, 0,</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>3</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148" t="str">
+        <f t="shared" si="17"/>
+        <v>7, 11, 0, 3, 0,</v>
       </c>
       <c r="O148">
         <v>-9</v>
@@ -6871,7 +9638,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="B149">
@@ -6881,14 +9648,36 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" si="5"/>
-        <v>6, 10, 0, 1, 0,</v>
+        <f t="shared" si="13"/>
+        <v>6, 10, 0, 0, 0,</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>3</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149" t="str">
+        <f t="shared" si="17"/>
+        <v>6, 10, 0, 3, 0,</v>
       </c>
       <c r="O149">
         <v>-10</v>
@@ -6896,7 +9685,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="B150">
@@ -6906,14 +9695,36 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <f t="shared" si="5"/>
-        <v>5, 9, 0, 2, 0,</v>
+        <f t="shared" si="13"/>
+        <v>5, 9, 0, 1, 0,</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>4</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150" t="str">
+        <f t="shared" si="17"/>
+        <v>5, 9, 0, 4, 0,</v>
       </c>
       <c r="O150">
         <v>-11</v>
@@ -6921,7 +9732,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="B151">
@@ -6931,14 +9742,36 @@
         <v>0</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <f t="shared" si="5"/>
-        <v>4, 8, 0, 2, 0,</v>
+        <f t="shared" si="13"/>
+        <v>4, 8, 0, 1, 0,</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>4</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151" t="str">
+        <f t="shared" si="17"/>
+        <v>4, 8, 0, 4, 0,</v>
       </c>
       <c r="O151">
         <v>-12</v>
@@ -6946,7 +9779,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="B152">
@@ -6956,14 +9789,36 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <f t="shared" si="5"/>
-        <v>3, 7, 0, 1, 0,</v>
+        <f t="shared" si="13"/>
+        <v>3, 7, 0, 2, 0,</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>5</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152" t="str">
+        <f t="shared" si="17"/>
+        <v>3, 7, 0, 5, 0,</v>
       </c>
       <c r="O152">
         <v>-13</v>
@@ -6971,7 +9826,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="B153">
@@ -6981,14 +9836,36 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <f t="shared" si="5"/>
-        <v>2, 6, 0, 1, 0,</v>
+        <f t="shared" si="13"/>
+        <v>2, 6, 0, 2, 0,</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>5</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153" t="str">
+        <f t="shared" si="17"/>
+        <v>2, 6, 0, 5, 0,</v>
       </c>
       <c r="O153">
         <v>-14</v>
@@ -6996,7 +9873,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="B154">
@@ -7006,14 +9883,36 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <f t="shared" si="5"/>
-        <v>1, 5, 0, 2, 0,</v>
+        <f t="shared" si="13"/>
+        <v>1, 5, 0, 0, 0,</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>3</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154" t="str">
+        <f t="shared" si="17"/>
+        <v>1, 5, 0, 3, 0,</v>
       </c>
       <c r="O154">
         <v>-15</v>
@@ -7021,7 +9920,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B155">
@@ -7031,14 +9930,36 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" si="5"/>
-        <v>0, 4, 0, 2, 0,</v>
+        <f t="shared" si="13"/>
+        <v>0, 4, 0, 0, 0,</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>3</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155" t="str">
+        <f t="shared" si="17"/>
+        <v>0, 4, 0, 3, 0,</v>
       </c>
       <c r="O155">
         <v>-16</v>
@@ -7046,7 +9967,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B156">
@@ -7062,8 +9983,30 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0, 3, 0, 1, 0,</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>4</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156" t="str">
+        <f t="shared" si="17"/>
+        <v>0, 3, 0, 4, 0,</v>
       </c>
       <c r="O156">
         <v>-16</v>
@@ -7071,7 +10014,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B157">
@@ -7087,8 +10030,30 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0, 2, 0, 1, 0,</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>4</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157" t="str">
+        <f t="shared" si="17"/>
+        <v>0, 2, 0, 4, 0,</v>
       </c>
       <c r="O157">
         <v>-16</v>
@@ -7096,7 +10061,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B158">
@@ -7112,8 +10077,30 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0, 1, 0, 2, 0,</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>5</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158" t="str">
+        <f t="shared" si="17"/>
+        <v>0, 1, 0, 5, 0,</v>
       </c>
       <c r="O158">
         <v>-16</v>
@@ -7121,7 +10108,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="B159">
@@ -7137,8 +10124,30 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0, 0, 0, 2, 0,</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>5</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159" t="str">
+        <f t="shared" si="17"/>
+        <v>0, 0, 0, 5, 0,</v>
       </c>
       <c r="O159">
         <v>-16</v>
